--- a/biology/Médecine/Fuboku_Kosakai/Fuboku_Kosakai.xlsx
+++ b/biology/Médecine/Fuboku_Kosakai/Fuboku_Kosakai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fuboku Kosakai (小酒井 不木 (?)), nom de plume de Mitsuji Kosakai (小酒井 光次 (?)), né le 8 octobre 1890 à Kanie et mort le 1er avril 1929, est un médecin, traducteur et écrivain japonais.
-Kosakai a étudié la médecine à l’Université impériale de Tokyo, et est devenu un spécialiste réputé de physiologie et de sérologie[1]. Il enseigne à l’Université impériale du Tohoku.
-Souffrant d'hémoptysie, il doit mettre un terme à sa carrière de chercheur[1].
-Il entame alors une carrière d'essayiste et d’écrivain, d'abord d'histoires policières, ensuite de science-fiction[1].
-Sa nouvelle Un cœur artificiel (1926)[2] est considérée par certains savants comme la première histoire japonaise de « science-fiction pure[1] ».
+Kosakai a étudié la médecine à l’Université impériale de Tokyo, et est devenu un spécialiste réputé de physiologie et de sérologie. Il enseigne à l’Université impériale du Tohoku.
+Souffrant d'hémoptysie, il doit mettre un terme à sa carrière de chercheur.
+Il entame alors une carrière d'essayiste et d’écrivain, d'abord d'histoires policières, ensuite de science-fiction.
+Sa nouvelle Un cœur artificiel (1926) est considérée par certains savants comme la première histoire japonaise de « science-fiction pure ».
 </t>
         </is>
       </c>
